--- a/Inventory CSVs/Parts to Order.xlsx
+++ b/Inventory CSVs/Parts to Order.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjbud\OneDrive\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A579C-C4F4-484F-9971-74C90C7106AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE40A2-4328-47A4-988A-C58AC0CE5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Empty Box Part #</t>
   </si>
@@ -85,6 +96,15 @@
   </si>
   <si>
     <t>Low Box Part # (&lt;5)</t>
+  </si>
+  <si>
+    <t>In my BOM?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -120,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,119 +424,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A16" sqref="A16:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>